--- a/EC/Train Runs and Enforcements 2016-05-23.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-23.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="610">
   <si>
     <t>Train ID</t>
   </si>
@@ -1875,6 +1875,15 @@
   </si>
   <si>
     <t>Initialized, but never ran</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/1fbf74be-85f2-4e5d-ae4e-e56ecef6b6da.kml</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/ebe49858-27c6-44f3-b0fa-307a285f8863.kml</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/d7abf0c4-ee35-482c-ad86-a26a442f7c32.kml</t>
   </si>
 </sst>
 </file>
@@ -14697,7 +14706,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15522,7 +15531,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>42513.397546296299</v>
       </c>
@@ -15573,7 +15582,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>42513.398101851853</v>
       </c>
@@ -15624,7 +15633,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>42513.47079861111</v>
       </c>
@@ -15675,7 +15684,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>42513.546736111108</v>
       </c>
@@ -15726,7 +15735,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>42513.643923611111</v>
       </c>
@@ -15777,7 +15786,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>42514.052106481482</v>
       </c>
@@ -15828,7 +15837,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>42513.454942129632</v>
       </c>
@@ -15880,8 +15889,11 @@
         <f t="shared" si="0"/>
         <v>4027</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="83" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>42513.657141203701</v>
       </c>
@@ -15934,7 +15946,7 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>42513.769687499997</v>
       </c>
@@ -15987,7 +15999,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>42513.77138888889</v>
       </c>
@@ -16039,8 +16051,11 @@
         <f t="shared" si="0"/>
         <v>4020</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="83" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>42513.996296296296</v>
       </c>
@@ -16093,7 +16108,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>42513.661076388889</v>
       </c>
@@ -16145,8 +16160,11 @@
         <f t="shared" si="0"/>
         <v>4016</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="83" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>42513.269166666665</v>
       </c>
@@ -16197,7 +16215,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>42513.306307870371</v>
       </c>
@@ -16248,7 +16266,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>42513.320069444446</v>
       </c>
@@ -16299,7 +16317,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>42513.344849537039</v>
       </c>
@@ -17649,8 +17667,13 @@
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="R23" r:id="rId1"/>
+    <hyperlink ref="R28" r:id="rId2"/>
+    <hyperlink ref="R26" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/EC/Train Runs and Enforcements 2016-05-23.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-23.xlsx
@@ -1820,9 +1820,6 @@
     <t>Other train ahead; Form C's</t>
   </si>
   <si>
-    <t>Trip was annulled?</t>
-  </si>
-  <si>
     <t>Discuss</t>
   </si>
   <si>
@@ -1884,6 +1881,9 @@
   </si>
   <si>
     <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/d7abf0c4-ee35-482c-ad86-a26a442f7c32.kml</t>
+  </si>
+  <si>
+    <t>Trip annulled</t>
   </si>
 </sst>
 </file>
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK152"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R120" sqref="R120"/>
+    <sheetView showGridLines="0" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,10 +3188,10 @@
         <v>69.333333332324401</v>
       </c>
       <c r="Q5" s="61" t="s">
-        <v>589</v>
+        <v>339</v>
       </c>
       <c r="R5" s="61" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="T5" s="73" t="str">
         <f t="shared" ref="T5:T67" si="6">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
@@ -4035,7 +4035,7 @@
         <v>339</v>
       </c>
       <c r="R15" s="61" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T15" s="73" t="str">
         <f t="shared" si="6"/>
@@ -4960,10 +4960,10 @@
         <v>41.26666666357778</v>
       </c>
       <c r="Q26" s="61" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R26" s="61" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T26" s="73" t="str">
         <f t="shared" si="6"/>
@@ -13635,7 +13635,7 @@
         <v>339</v>
       </c>
       <c r="R129" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T129" s="73" t="str">
         <f t="shared" si="22"/>
@@ -14705,8 +14705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15890,7 +15890,7 @@
         <v>4027</v>
       </c>
       <c r="R23" s="83" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15935,7 +15935,7 @@
         <v>87</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P24" s="80" t="str">
         <f>VLOOKUP(C24,'Train Runs'!$A$3:$T$244,20,0)</f>
@@ -15988,7 +15988,7 @@
         <v>141</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P25" s="80" t="str">
         <f>VLOOKUP(C25,'Train Runs'!$A$3:$T$244,20,0)</f>
@@ -16052,7 +16052,7 @@
         <v>4020</v>
       </c>
       <c r="R26" s="83" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16097,7 +16097,7 @@
         <v>87</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P27" s="80" t="str">
         <f>VLOOKUP(C27,'Train Runs'!$A$3:$T$244,20,0)</f>
@@ -16161,7 +16161,7 @@
         <v>4016</v>
       </c>
       <c r="R28" s="83" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -17707,7 +17707,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>343</v>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B4" s="77" t="s">
         <v>343</v>
@@ -17723,7 +17723,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>343</v>
@@ -17731,7 +17731,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>343</v>
@@ -17739,7 +17739,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="78" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B7" s="77" t="s">
         <v>343</v>
@@ -17747,7 +17747,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>343</v>
@@ -17755,7 +17755,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B9" s="77" t="s">
         <v>343</v>
@@ -17763,7 +17763,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>343</v>
@@ -17771,7 +17771,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B11" s="77" t="s">
         <v>343</v>
@@ -17779,7 +17779,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B12" s="77" t="s">
         <v>343</v>
@@ -17787,7 +17787,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B13" s="77" t="s">
         <v>343</v>
@@ -17798,7 +17798,7 @@
         <v>419</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Runs and Enforcements 2016-05-23.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK152"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J119" sqref="J119"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N116" sqref="N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14705,8 +14705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
